--- a/Note work.xlsx
+++ b/Note work.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Civil-V2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Work\Civil-V2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68C4BD37-810C-4965-BDA9-F44B7CFD2761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47ABE2FC-2FED-49B6-B03C-8C93F8C9C775}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7875" yWindow="0" windowWidth="11520" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
   <si>
     <t>No.</t>
   </si>
@@ -67,6 +67,30 @@
   </si>
   <si>
     <t>เพิ่มชื่อระบบในหน้า login</t>
+  </si>
+  <si>
+    <t>ปรับหน้า login</t>
+  </si>
+  <si>
+    <t>เพิ่ม validate user</t>
+  </si>
+  <si>
+    <t>แก้ไข bug อยู่ๆก็เข้าเมนูไม่ได้</t>
+  </si>
+  <si>
+    <t>Inprocess</t>
+  </si>
+  <si>
+    <t>กด logout แล้วจะค้างแปปหนึ่ง</t>
+  </si>
+  <si>
+    <t>logout ในมือถือไม่สำเร็จ</t>
+  </si>
+  <si>
+    <t>แก้ไข content มี margin top สูงเกินไป</t>
+  </si>
+  <si>
+    <t>มีอาการหน่วงเวลาคลิกเมนู</t>
   </si>
 </sst>
 </file>
@@ -77,14 +101,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -433,20 +457,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="83.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.75" customWidth="1"/>
-    <col min="4" max="4" width="11.125" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" customWidth="1"/>
+    <col min="2" max="2" width="65.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -466,7 +491,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -480,7 +505,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -494,7 +519,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -508,7 +533,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -522,7 +547,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -536,7 +561,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -550,7 +575,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -562,6 +587,113 @@
       </c>
       <c r="D8" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Note work.xlsx
+++ b/Note work.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Work\Civil-V2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47ABE2FC-2FED-49B6-B03C-8C93F8C9C775}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA05E2BA-B584-4175-B4E1-24645C61D2BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7875" yWindow="0" windowWidth="11520" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
   <si>
     <t>No.</t>
   </si>
@@ -91,6 +91,12 @@
   </si>
   <si>
     <t>มีอาการหน่วงเวลาคลิกเมนู</t>
+  </si>
+  <si>
+    <t>เมื่อ deploy ไปแล้วไม่พบรายการรถ</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -457,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -665,7 +671,7 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -693,7 +699,24 @@
         <v>1</v>
       </c>
       <c r="D15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16" t="s">
         <v>17</v>
+      </c>
+      <c r="F16" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Note work.xlsx
+++ b/Note work.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Work\Civil-V2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA05E2BA-B584-4175-B4E1-24645C61D2BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{827A3A7E-848B-4787-8676-F7EBB2F52C3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7875" yWindow="0" windowWidth="11520" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
   <si>
     <t>No.</t>
   </si>
@@ -78,9 +78,6 @@
     <t>แก้ไข bug อยู่ๆก็เข้าเมนูไม่ได้</t>
   </si>
   <si>
-    <t>Inprocess</t>
-  </si>
-  <si>
     <t>กด logout แล้วจะค้างแปปหนึ่ง</t>
   </si>
   <si>
@@ -94,9 +91,6 @@
   </si>
   <si>
     <t>เมื่อ deploy ไปแล้วไม่พบรายการรถ</t>
-  </si>
-  <si>
-    <t>N</t>
   </si>
 </sst>
 </file>
@@ -465,8 +459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="B7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -651,7 +645,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -665,7 +659,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -679,7 +673,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -693,7 +687,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -707,16 +701,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C16">
         <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
